--- a/src/test/resources/testdata/testDataSheet.xlsx
+++ b/src/test/resources/testdata/testDataSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium_Workspace\AynaxAutomationTest\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium_Workspace\AAT_Selenium\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="VendorData" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>TestName</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>Vendor4</t>
+  </si>
+  <si>
+    <t>EditAccount3</t>
+  </si>
+  <si>
+    <t>EditAccount4</t>
   </si>
 </sst>
 </file>
@@ -699,7 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1448,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,6 +1504,22 @@
         <v>455</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5">
+        <v>982</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1508,7 +1530,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
